--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -34,10 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +71,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,11 +97,14 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,6 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
@@ -1037,16 +1055,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <v>四川广元</v>
+        <v>山东烟台</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="str">
-        <v>0x774422a393Acb5438503AA91666a008Cb7f1CC72</v>
+        <v>0x1c892f022D61f0f2F5A1c0e4672435edd9e6E57E</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>未交保证金</v>
+        <v>已交保证金</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>否</v>
@@ -1054,13 +1072,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <v>山东烟台</v>
+        <v>安徽滁州</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>0x1c892f022D61f0f2F5A1c0e4672435edd9e6E57E</v>
+        <v>0x7236C96D68C4af3bA1c286dcD863D9527C4C6E75</v>
       </c>
       <c r="D38" s="1" t="str">
         <v>已交保证金</v>
@@ -1071,13 +1089,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <v>安徽滁州</v>
+        <v>山东青岛</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="str">
-        <v>0x7236C96D68C4af3bA1c286dcD863D9527C4C6E75</v>
+        <v>0x53616e17A4A1817429Cc26B00A420cb3eb270cd0</v>
       </c>
       <c r="D39" s="1" t="str">
         <v>已交保证金</v>
@@ -1088,13 +1106,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <v>山东青岛</v>
+        <v>安徽阜阳</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="str">
-        <v>0x53616e17A4A1817429Cc26B00A420cb3eb270cd0</v>
+        <v>0xCb9048d1449d5BcC3c488fD11768F71b647466cB</v>
       </c>
       <c r="D40" s="1" t="str">
         <v>已交保证金</v>
@@ -1105,16 +1123,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <v>安徽阜阳</v>
+        <v>浙江绍兴</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="str">
-        <v>0xCb9048d1449d5BcC3c488fD11768F71b647466cB</v>
+        <v>0x7dd71454F60EA232b12BFE61C251F0b76D2D8E50</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>已交保证金</v>
+        <v>未交保证金</v>
       </c>
       <c r="E41" s="1" t="str">
         <v>否</v>
@@ -1122,16 +1140,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <v>浙江绍兴</v>
+        <v>四川 宜宾</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="str">
-        <v>0x7dd71454F60EA232b12BFE61C251F0b76D2D8E50</v>
+        <v>0xfb50d4a8ef495bE9437267DfBB01CfA4918AEbe5</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>未交保证金</v>
+        <v>已交保证金</v>
       </c>
       <c r="E42" s="1" t="str">
         <v>否</v>
@@ -1139,13 +1157,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <v>四川 宜宾</v>
+        <v>四川 资阳</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="str">
-        <v>0xfb50d4a8ef495bE9437267DfBB01CfA4918AEbe5</v>
+        <v>0xeF6EacdfD013b52C173962c55EABF7dF2aA3C3A4</v>
       </c>
       <c r="D43" s="1" t="str">
         <v>已交保证金</v>
@@ -1156,16 +1174,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <v>四川 资阳</v>
+        <v>四川 乐山</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v>0xeF6EacdfD013b52C173962c55EABF7dF2aA3C3A4</v>
+        <v>0xcbB3e5d9Eeb6A3041382eBF568151c0dF03c91b9</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>已交保证金</v>
+        <v>已交保证金11-01</v>
       </c>
       <c r="E44" s="1" t="str">
         <v>否</v>
@@ -1173,16 +1191,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <v>四川 乐山</v>
+        <v>四川 泸州</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="str">
-        <v>0xcbB3e5d9Eeb6A3041382eBF568151c0dF03c91b9</v>
+        <v>0x06dE9e9b8bC082fbB3E5c56A82B89C55c16B0495</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>已交保证金</v>
       </c>
       <c r="E45" s="1" t="str">
         <v>否</v>
@@ -1190,13 +1208,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <v>四川 泸州</v>
+        <v>四川 广元</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="str">
-        <v>0x06dE9e9b8bC082fbB3E5c56A82B89C55c16B0495</v>
+        <v>0x1Bf5b80a89d18Fe359b07d08F77c81c057b5f062</v>
       </c>
       <c r="D46" s="1" t="str">
         <v>已交保证金</v>
@@ -1207,13 +1225,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
-        <v>四川 广元</v>
+        <v>四川 遂宁</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="str">
-        <v>0x1Bf5b80a89d18Fe359b07d08F77c81c057b5f062</v>
+        <v>0x7d8fFb9B868EA8E86dB9f58F3aa7ADDaceC1731B</v>
       </c>
       <c r="D47" s="1" t="str">
         <v>已交保证金</v>
@@ -1224,13 +1242,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
-        <v>四川 遂宁</v>
+        <v>四川 达州</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="str">
-        <v>0x7d8fFb9B868EA8E86dB9f58F3aa7ADDaceC1731B</v>
+        <v>0xE743b31fc8E0fc8B02FA16dF48CAAa85f848f780</v>
       </c>
       <c r="D48" s="1" t="str">
         <v>已交保证金</v>
@@ -1241,13 +1259,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <v>四川 达州</v>
+        <v>四川 德阳</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>0xE743b31fc8E0fc8B02FA16dF48CAAa85f848f780</v>
+        <v>0x332f21d78969848837f63515392e0C7a6f24c842</v>
       </c>
       <c r="D49" s="1" t="str">
         <v>已交保证金</v>
@@ -1258,16 +1276,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
-        <v>四川 德阳</v>
+        <v>黑龙江 哈尔滨</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>0x332f21d78969848837f63515392e0C7a6f24c842</v>
+        <v>0x39C7eD6864D4a9e89a6403058cf6E093937fb404</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>已交保证金</v>
+        <v>已交保证金11-01</v>
       </c>
       <c r="E50" s="1" t="str">
         <v>否</v>
@@ -1275,13 +1293,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
-        <v>黑龙江 哈尔滨</v>
+        <v>山西 临汾</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="str">
-        <v>0x39C7eD6864D4a9e89a6403058cf6E093937fb404</v>
+        <v>0x4eFB064610574C7B3d5B7A29C18FEcbAE1ab3D7B</v>
       </c>
       <c r="D51" s="1" t="str">
         <v>已交保证金11-01</v>
@@ -1292,13 +1310,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
-        <v>山西 临汾</v>
+        <v>福建 泉州</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="str">
-        <v>0x4eFB064610574C7B3d5B7A29C18FEcbAE1ab3D7B</v>
+        <v>0x60ae78727284D6C68D1d0fc5fe13185d5c6d9007</v>
       </c>
       <c r="D52" s="1" t="str">
         <v>已交保证金11-01</v>
@@ -1309,16 +1327,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
-        <v>福建 泉州</v>
+        <v>陕西 西安</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="str">
-        <v>0x60ae78727284D6C68D1d0fc5fe13185d5c6d9007</v>
+        <v>0x2cA73315fb4248eAB8a66bA8127DE5dCf4B8A207</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>已交保证金11-02</v>
       </c>
       <c r="E53" s="1" t="str">
         <v>否</v>
@@ -1326,16 +1344,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <v>陕西 西安</v>
+        <v>河北 邯郸</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>0x2cA73315fb4248eAB8a66bA8127DE5dCf4B8A207</v>
+        <v>0x4318ac91eDB4aA15E91Ad0292BfceF574F74d67A</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>已交保证金11-02</v>
+        <v>已交保证金11-01</v>
       </c>
       <c r="E54" s="1" t="str">
         <v>否</v>
@@ -1343,13 +1361,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
-        <v>河北 邯郸</v>
+        <v>河北 石家庄</v>
       </c>
       <c r="B55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="str">
-        <v>0x4318ac91eDB4aA15E91Ad0292BfceF574F74d67A</v>
+        <v>0x05fF7D67057BdD779B5c0A2BdA0D6B85Fbe3Deb7</v>
       </c>
       <c r="D55" s="1" t="str">
         <v>已交保证金11-01</v>
@@ -1360,13 +1378,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
-        <v>河北 石家庄</v>
+        <v>广东 江门</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="str">
-        <v>0x05fF7D67057BdD779B5c0A2BdA0D6B85Fbe3Deb7</v>
+        <v>0xd0388eD0c84c1f07D1534D3dE2090b123D01D551</v>
       </c>
       <c r="D56" s="1" t="str">
         <v>已交保证金11-01</v>
@@ -1377,13 +1395,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
-        <v>广东 江门</v>
+        <v>河南 洛阳</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="str">
-        <v>0xd0388eD0c84c1f07D1534D3dE2090b123D01D551</v>
+        <v>0x1a1dd408c8a3B0558cF1E6f94df868e5B55888eA</v>
       </c>
       <c r="D57" s="1" t="str">
         <v>已交保证金11-01</v>
@@ -1394,16 +1412,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
-        <v>河南 洛阳</v>
+        <v>中国 香港</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="str">
-        <v>0x1a1dd408c8a3B0558cF1E6f94df868e5B55888eA</v>
+        <v>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>未交保证金</v>
       </c>
       <c r="E58" s="1" t="str">
         <v>否</v>
@@ -1411,13 +1429,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <v>中国 香港</v>
+        <v>越南 河内</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="str">
-        <v>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</v>
+        <v>0xdE45dE4a222D1A799279954C123C33a8ae93FA04</v>
       </c>
       <c r="D59" s="1" t="str">
         <v>未交保证金</v>
@@ -1428,13 +1446,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
-        <v>越南 河内</v>
+        <v>泰国 曼谷</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="str">
-        <v>0xdE45dE4a222D1A799279954C123C33a8ae93FA04</v>
+        <v>0xd7922692C157Ee415FaCfe700e7A3e616f7B12C8</v>
       </c>
       <c r="D60" s="1" t="str">
         <v>未交保证金</v>
@@ -1445,13 +1463,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
-        <v>泰国 曼谷</v>
+        <v>天津</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="str">
-        <v>0xd7922692C157Ee415FaCfe700e7A3e616f7B12C8</v>
+        <v>0x89366fFFdAe029818747F03A3d350E372b25E2a6</v>
       </c>
       <c r="D61" s="1" t="str">
         <v>未交保证金</v>
@@ -1462,13 +1480,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
-        <v>天津</v>
+        <v>呼和浩特</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="str">
-        <v>0x89366fFFdAe029818747F03A3d350E372b25E2a6</v>
+        <v>0xb024A95766d59e4D8E77d21afA28357D3310f82E</v>
       </c>
       <c r="D62" s="1" t="str">
         <v>未交保证金</v>
@@ -1479,13 +1497,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
-        <v>呼和浩特</v>
+        <v>运城</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="str">
-        <v>0xb024A95766d59e4D8E77d21afA28357D3310f82E</v>
+        <v>0xB6364247A238cc19b72E0375b078602949b3aAF3</v>
       </c>
       <c r="D63" s="1" t="str">
         <v>未交保证金</v>
@@ -1496,13 +1514,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
-        <v>运城</v>
+        <v>大同</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="str">
-        <v>0xB6364247A238cc19b72E0375b078602949b3aAF3</v>
+        <v>0x3EEBFb171A0662144068F392Df543C617B46c1c0</v>
       </c>
       <c r="D64" s="1" t="str">
         <v>未交保证金</v>
@@ -1513,13 +1531,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
-        <v>大同</v>
+        <v>沈阳</v>
       </c>
       <c r="B65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="str">
-        <v>0x3EEBFb171A0662144068F392Df543C617B46c1c0</v>
+        <v>0x39A7533673A0c19A5728db7be6A3b72dC5d5E095</v>
       </c>
       <c r="D65" s="1" t="str">
         <v>未交保证金</v>
@@ -1530,13 +1548,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
-        <v>沈阳</v>
+        <v>长春</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="str">
-        <v>0x39A7533673A0c19A5728db7be6A3b72dC5d5E095</v>
+        <v>0x2008D3307d4998Fb18aE9dF16e193cf7d17f507A</v>
       </c>
       <c r="D66" s="1" t="str">
         <v>未交保证金</v>
@@ -1547,13 +1565,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
-        <v>长春</v>
+        <v>自贡</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="str">
-        <v>0x2008D3307d4998Fb18aE9dF16e193cf7d17f507A</v>
+        <v>0x09EF33D82d4400e3Cb3442D8D2DefA483837d001</v>
       </c>
       <c r="D67" s="1" t="str">
         <v>未交保证金</v>
@@ -1564,13 +1582,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
-        <v>自贡</v>
+        <v>厦门</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="str">
-        <v>0x09EF33D82d4400e3Cb3442D8D2DefA483837d001</v>
+        <v>0xa87317766b6C2F8A1f18FfB428886936C3F442A6</v>
       </c>
       <c r="D68" s="1" t="str">
         <v>未交保证金</v>
@@ -1581,13 +1599,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
-        <v>厦门</v>
+        <v>常州</v>
       </c>
       <c r="B69" s="1">
         <v>2</v>
       </c>
       <c r="C69" s="1" t="str">
-        <v>0xa87317766b6C2F8A1f18FfB428886936C3F442A6</v>
+        <v>0xA67C94936357D18eDdEF2CDcF8f859706cE44fC7</v>
       </c>
       <c r="D69" s="1" t="str">
         <v>未交保证金</v>
@@ -1598,13 +1616,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="str">
-        <v>常州</v>
+        <v>徐州</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70" s="1" t="str">
-        <v>0xA67C94936357D18eDdEF2CDcF8f859706cE44fC7</v>
+        <v>0x5E4f7B852D058A6e0c744f3C7923e76DfF7121b1</v>
       </c>
       <c r="D70" s="1" t="str">
         <v>未交保证金</v>
@@ -1615,13 +1633,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="str">
-        <v>徐州</v>
+        <v>濮阳</v>
       </c>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="str">
-        <v>0x5E4f7B852D058A6e0c744f3C7923e76DfF7121b1</v>
+        <v>0xa43a1F3CD76dB97ea1F61d83686011e5f0ae0038</v>
       </c>
       <c r="D71" s="1" t="str">
         <v>未交保证金</v>
@@ -1632,13 +1650,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="str">
-        <v>濮阳</v>
+        <v>滨州</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="str">
-        <v>0xa43a1F3CD76dB97ea1F61d83686011e5f0ae0038</v>
+        <v>0xC4A4C5b336Ec0dD7CD6c667533bA04271fF8166d</v>
       </c>
       <c r="D72" s="1" t="str">
         <v>未交保证金</v>
@@ -1649,13 +1667,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="str">
-        <v>滨州</v>
+        <v>赣州</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="str">
-        <v>0xC4A4C5b336Ec0dD7CD6c667533bA04271fF8166d</v>
+        <v>0x5e9b77A3143767B527F8CF09140f5185076528D7</v>
       </c>
       <c r="D73" s="1" t="str">
         <v>未交保证金</v>
@@ -1666,13 +1684,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
-        <v>赣州</v>
+        <v>内江</v>
       </c>
       <c r="B74" s="1">
         <v>3</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>0x5e9b77A3143767B527F8CF09140f5185076528D7</v>
+        <v>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</v>
       </c>
       <c r="D74" s="1" t="str">
         <v>未交保证金</v>
@@ -1683,13 +1701,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="str">
-        <v>内江</v>
+        <v>济南</v>
       </c>
       <c r="B75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1" t="str">
-        <v>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</v>
+        <v>0xf37EF94dEcfBBa1ed29ADe28A51A3Ff5f0F182bB</v>
       </c>
       <c r="D75" s="1" t="str">
         <v>未交保证金</v>
@@ -1700,13 +1718,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="str">
-        <v>济南</v>
+        <v>昆明</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="str">
-        <v>0xf37EF94dEcfBBa1ed29ADe28A51A3Ff5f0F182bB</v>
+        <v>0x00c9aB378B74a59390A9128AB32454Faf54979eC</v>
       </c>
       <c r="D76" s="1" t="str">
         <v>未交保证金</v>
@@ -1717,13 +1735,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
-        <v>昆明</v>
+        <v>遵义</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="str">
-        <v>0x00c9aB378B74a59390A9128AB32454Faf54979eC</v>
+        <v>0x84893D8ed4A589AeD19ae71e9cb61a02b0Edd903</v>
       </c>
       <c r="D77" s="1" t="str">
         <v>未交保证金</v>
@@ -1734,18 +1752,137 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
-        <v>遵义</v>
+        <v>法国利勒/France Val-de-Marne</v>
       </c>
       <c r="B78" s="1">
         <v>3</v>
       </c>
       <c r="C78" s="1" t="str">
-        <v>0x84893D8ed4A589AeD19ae71e9cb61a02b0Edd903</v>
+        <v>0xD06bC408f29ce7D3221D60DFad134a034dc0CE16</v>
       </c>
       <c r="D78" s="1" t="str">
         <v>未交保证金</v>
       </c>
-      <c r="E78" s="1" t="str">
+      <c r="E78" s="2" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="str">
+        <v>广东 佛山</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <v>0x1497aBa77744C14b145B0790a404000693dE6DCF</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="str">
+        <v>山东 潍坊</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <v>0xEEEfB8196458e807B35B9688184e22438C3642AE</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="str">
+        <v>广东 汕头</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <v>0x921977fbcd28d7E8918c95006a5ce6e8B3f5785A</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="str">
+        <v>广东 中山</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <v>0x115364a4c0b2d875eac61b74130a8de3dcd2c263</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="str">
+        <v>山西 太原</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <v>0x9496C162dE44fE7c387543ef0237762Ce158e6ec</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="str">
+        <v>贵州 贵阳</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="str" xml:space="preserve">
+        <v>0xDC528c76c2C509f629249C95C35D181A8Bb18e12 </v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="str">
+        <v>安徽 合肥</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <v>0xD7fAA76d2D39FA3AFcc9320741d0D1e49108B778</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E85" s="1" t="str">
         <v>否</v>
       </c>
     </row>

--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="47"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
@@ -449,7 +449,7 @@
         <v>用户地址</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>交保证金</v>
+        <v>是否交保证金</v>
       </c>
       <c r="E1" s="1" t="str">
         <v>是否需要退保证金</v>
@@ -469,7 +469,7 @@
         <v>0x77bd41fdE654FE0054b771Ec6985dC9d5247BAfe</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E2" s="1" t="str">
         <v>是</v>
@@ -486,7 +486,7 @@
         <v>0x17dC6411D638672A073f23267C4735ca877AA623</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E3" s="1" t="str">
         <v>是</v>
@@ -494,16 +494,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>河北省承德市</v>
+        <v>湖南省长沙市</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>0xef3E99B0A86284e57c73d096f20c3B983cd4c18e</v>
+        <v>0xE137fF4FCdDA90C3665562F52491B511155e19FF</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E4" s="1" t="str">
         <v>是</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>湖南省长沙市</v>
+        <v>江苏省泰州市</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>0xE137fF4FCdDA90C3665562F52491B511155e19FF</v>
+        <v>0xF22fc6b430C265Fc6eC39d434897cE4E0bC2fD21</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>是</v>
@@ -528,16 +528,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>江苏省泰州市</v>
+        <v>江苏省淮安市</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>0xF22fc6b430C265Fc6eC39d434897cE4E0bC2fD21</v>
+        <v>0x2E418BF2d36eE6464E7Dcf08fBb994C78971F50A</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>是</v>
@@ -545,16 +545,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <v>江苏省淮安市</v>
+        <v>山东省淄博市</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>0x2E418BF2d36eE6464E7Dcf08fBb994C78971F50A</v>
+        <v>0x7295f5a83337163aA06c70dcdd51903aCc5E27fa</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>是</v>
@@ -562,16 +562,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <v>山东省淄博市</v>
+        <v>山东省临沂市</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>0x7295f5a83337163aA06c70dcdd51903aCc5E27fa</v>
+        <v>0xFc542654708477B585a8C219397C34f921Ed0089</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>是</v>
@@ -579,16 +579,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <v>山东省临沂市</v>
+        <v>福建省莆田市</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>0xFc542654708477B585a8C219397C34f921Ed0089</v>
+        <v>0x2Fde6c8b270dEeDb011F54eC8abDf08CA8cA5dfF</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>是</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <v>福建省莆田市</v>
+        <v>河南省郑州市</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>0x2Fde6c8b270dEeDb011F54eC8abDf08CA8cA5dfF</v>
+        <v>0xcE492Ae90D030DB5C833296F1ABdE6c088013E50</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>是</v>
@@ -613,33 +613,36 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
-        <v>河南省郑州市</v>
+        <v>马来西亚莎亚南</v>
       </c>
       <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>0x8407DC14bFD44FDcEE0274766C08477f4C9748d2</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>停止</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str" xml:space="preserve">
+        <v>马来西亚吉隆坡/Malaysia Kuala Lumpur </v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <v>0xcE492Ae90D030DB5C833296F1ABdE6c088013E50</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>已交保证金</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <v>是</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>马来西亚莎亚南</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
       <c r="C12" s="1" t="str">
-        <v>0x8407DC14bFD44FDcEE0274766C08477f4C9748d2</v>
+        <v>0x97f3a085bc4f88915f95d181e5bd9500b452d412</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>是</v>
@@ -656,7 +659,7 @@
         <v>0xF032A7e9556f3a9688278e995c1Ac9CC7A676eD5</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E13" s="1" t="str">
         <v>是</v>
@@ -664,16 +667,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <v>湖北武汉</v>
+        <v>菏泽市</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v>0x7763aE1D565Dcc422b7Bc07D5567281338a92A25</v>
+        <v>0x06EfCb450059517f5b34a7cC4eFD80298825124E</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>是</v>
@@ -681,16 +684,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
-        <v>菏泽市</v>
+        <v>荆州市</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="str">
-        <v>0x06EfCb450059517f5b34a7cC4eFD80298825124E</v>
+        <v>0x1763271960D827D1DE4654D9E754021A0f5f94A5</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>是</v>
@@ -698,16 +701,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <v>荆州市</v>
+        <v>云南楚雄</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="str">
-        <v>0x1763271960D827D1DE4654D9E754021A0f5f94A5</v>
+        <v>0xD01BB85d6eB4fbd0EdF9A9a4885B3defC7e77ae8</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>是</v>
@@ -715,16 +718,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
-        <v>云南楚雄</v>
+        <v>宿迁</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="str">
-        <v>0xD01BB85d6eB4fbd0EdF9A9a4885B3defC7e77ae8</v>
+        <v>0x9a04896807Aa61458cB3f996F811022086C61698</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E17" s="1" t="str">
         <v>是</v>
@@ -732,16 +735,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <v>宿迁</v>
+        <v>福建福州</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="str">
-        <v>0x9a04896807Aa61458cB3f996F811022086C61698</v>
+        <v>0x714956178a484805EBe00f5Cef30bC7e7323C30F</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>是</v>
@@ -749,16 +752,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <v>福建福州</v>
+        <v>吉林市</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v>0x714956178a484805EBe00f5Cef30bC7e7323C30F</v>
+        <v>0xbd217924A735D66ba421A852B1dF096378BA8b72</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>是</v>
@@ -766,16 +769,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
-        <v>吉林市</v>
+        <v>浙江金华</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="str">
-        <v>0xbd217924A735D66ba421A852B1dF096378BA8b72</v>
+        <v>0xeAddEef3df4687d26bF6E160515AbC424c55D4F4</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>是</v>
@@ -783,16 +786,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
-        <v>浙江金华</v>
+        <v>嘉兴</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="str">
-        <v>0xeAddEef3df4687d26bF6E160515AbC424c55D4F4</v>
+        <v>0x90E9aAD6EE78F79058A9d7aA1655205465bef695</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>是</v>
@@ -800,16 +803,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
-        <v>嘉兴</v>
+        <v>丽水</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="str">
-        <v>0x90E9aAD6EE78F79058A9d7aA1655205465bef695</v>
+        <v>0x12Cc2278b37c2751D11B5A64712Ff439b57F6E6a</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>是</v>
@@ -817,16 +820,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
-        <v>丽水</v>
+        <v>衡阳</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="str">
-        <v>0x12Cc2278b37c2751D11B5A64712Ff439b57F6E6a</v>
+        <v>0x889490ccE657b962E1D3140bbCBEF869D3764D2c</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>是</v>
@@ -834,33 +837,33 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <v>衡阳</v>
+        <v>杭州</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>0x889490ccE657b962E1D3140bbCBEF869D3764D2c</v>
+        <v>0x342AcB8027b227fB4104ff35fE9cc373d103eC92</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E24" s="1" t="str">
-        <v>是</v>
+        <v>否</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
-        <v>杭州</v>
+        <v>浙江温州</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="str">
-        <v>0x342AcB8027b227fB4104ff35fE9cc373d103eC92</v>
+        <v>0x54C61455d179D519fac09eF6eFaF367AC78cB233</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>否</v>
@@ -868,16 +871,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <v>浙江温州</v>
+        <v>浙江台州</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="str">
-        <v>0x54C61455d179D519fac09eF6eFaF367AC78cB233</v>
+        <v>0x7D574395807fd442F199Baa05166eC267b7776f8</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>否</v>
@@ -885,16 +888,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <v>江苏无锡</v>
+        <v>浙江宁波</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="str">
-        <v>0x220b088CCD597a2525c1e1E1730F35D30E01704E</v>
+        <v>0x21DCe990d025e909049E7966e42850491CB42afd</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>否</v>
@@ -902,16 +905,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <v>浙江台州</v>
+        <v>秦皇岛</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="str">
-        <v>0x7D574395807fd442F199Baa05166eC267b7776f8</v>
+        <v>0x2401D62483407E71b46bA935De08016a1171667A</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>否</v>
@@ -919,16 +922,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <v>浙江宁波</v>
+        <v>四川绵阳</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>0x21DCe990d025e909049E7966e42850491CB42afd</v>
+        <v>0x1F9Ef76F19281F0D0710D99EDb419DF6Bf3de2Bb</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>否</v>
@@ -936,16 +939,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
-        <v>秦皇岛</v>
+        <v>重庆</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="str">
-        <v>0x2401D62483407E71b46bA935De08016a1171667A</v>
+        <v>0x8401b3806b55DfD76e605F2E7e9C2Dca48fc0D9b</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>否</v>
@@ -953,16 +956,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
-        <v>四川绵阳</v>
+        <v>安徽马鞍山</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="str">
-        <v>0x1F9Ef76F19281F0D0710D99EDb419DF6Bf3de2Bb</v>
+        <v>0x50b0F4Fc024DE0EFD25914d98D72bF1dAEbc9DFe</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>否</v>
@@ -970,16 +973,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <v>重庆</v>
+        <v>江西南昌</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="str">
-        <v>0x8401b3806b55DfD76e605F2E7e9C2Dca48fc0D9b</v>
+        <v>0x37F58210539e48ebFA90Cb66C9C351F1D5eCA273</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>否</v>
@@ -987,16 +990,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <v>安徽马鞍山</v>
+        <v>江苏连云港</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="str">
-        <v>0x50b0F4Fc024DE0EFD25914d98D72bF1dAEbc9DFe</v>
+        <v>0xB4b8C183BE22703EAbE990f67210aB252B441f32</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>否</v>
@@ -1004,16 +1007,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <v>江西南昌</v>
+        <v>四川南充</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>0x37F58210539e48ebFA90Cb66C9C351F1D5eCA273</v>
+        <v>0x98707977c917CE76df60446b052C6F169cDd2b30</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>否</v>
@@ -1021,16 +1024,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
-        <v>江苏连云港</v>
+        <v>山东烟台</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="str">
-        <v>0xB4b8C183BE22703EAbE990f67210aB252B441f32</v>
+        <v>0x1c892f022D61f0f2F5A1c0e4672435edd9e6E57E</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>否</v>
@@ -1038,16 +1041,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
-        <v>四川南充</v>
+        <v>安徽滁州</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="str">
-        <v>0x98707977c917CE76df60446b052C6F169cDd2b30</v>
+        <v>0x7236C96D68C4af3bA1c286dcD863D9527C4C6E75</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E36" s="1" t="str">
         <v>否</v>
@@ -1055,16 +1058,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <v>山东烟台</v>
+        <v>山东青岛</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="str">
-        <v>0x1c892f022D61f0f2F5A1c0e4672435edd9e6E57E</v>
+        <v>0x53616e17A4A1817429Cc26B00A420cb3eb270cd0</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>否</v>
@@ -1072,16 +1075,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <v>安徽滁州</v>
+        <v>安徽阜阳</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>0x7236C96D68C4af3bA1c286dcD863D9527C4C6E75</v>
+        <v>0xCb9048d1449d5BcC3c488fD11768F71b647466cB</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>否</v>
@@ -1089,16 +1092,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <v>山东青岛</v>
+        <v>浙江绍兴</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="str">
-        <v>0x53616e17A4A1817429Cc26B00A420cb3eb270cd0</v>
+        <v>0x7dd71454F60EA232b12BFE61C251F0b76D2D8E50</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>已交保证金</v>
+        <v>未交保证金</v>
       </c>
       <c r="E39" s="1" t="str">
         <v>否</v>
@@ -1106,16 +1109,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <v>安徽阜阳</v>
+        <v>四川 宜宾</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="str">
-        <v>0xCb9048d1449d5BcC3c488fD11768F71b647466cB</v>
+        <v>0xfb50d4a8ef495bE9437267DfBB01CfA4918AEbe5</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E40" s="1" t="str">
         <v>否</v>
@@ -1123,16 +1126,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <v>浙江绍兴</v>
+        <v>四川 资阳</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="str">
-        <v>0x7dd71454F60EA232b12BFE61C251F0b76D2D8E50</v>
+        <v>0xeF6EacdfD013b52C173962c55EABF7dF2aA3C3A4</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E41" s="1" t="str">
         <v>否</v>
@@ -1140,16 +1143,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <v>四川 宜宾</v>
+        <v>四川 乐山</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="str">
-        <v>0xfb50d4a8ef495bE9437267DfBB01CfA4918AEbe5</v>
+        <v>0xcbB3e5d9Eeb6A3041382eBF568151c0dF03c91b9</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E42" s="1" t="str">
         <v>否</v>
@@ -1157,16 +1160,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <v>四川 资阳</v>
+        <v>四川 泸州</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="str">
-        <v>0xeF6EacdfD013b52C173962c55EABF7dF2aA3C3A4</v>
+        <v>0x06dE9e9b8bC082fbB3E5c56A82B89C55c16B0495</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E43" s="1" t="str">
         <v>否</v>
@@ -1174,16 +1177,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <v>四川 乐山</v>
+        <v>四川 广元</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v>0xcbB3e5d9Eeb6A3041382eBF568151c0dF03c91b9</v>
+        <v>0x1Bf5b80a89d18Fe359b07d08F77c81c057b5f062</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E44" s="1" t="str">
         <v>否</v>
@@ -1191,16 +1194,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <v>四川 泸州</v>
+        <v>四川 遂宁</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="str">
-        <v>0x06dE9e9b8bC082fbB3E5c56A82B89C55c16B0495</v>
+        <v>0x7d8fFb9B868EA8E86dB9f58F3aa7ADDaceC1731B</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E45" s="1" t="str">
         <v>否</v>
@@ -1208,16 +1211,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <v>四川 广元</v>
+        <v>四川 达州</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="str">
-        <v>0x1Bf5b80a89d18Fe359b07d08F77c81c057b5f062</v>
+        <v>0xE743b31fc8E0fc8B02FA16dF48CAAa85f848f780</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E46" s="1" t="str">
         <v>否</v>
@@ -1225,16 +1228,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
-        <v>四川 遂宁</v>
+        <v>四川 德阳</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="str">
-        <v>0x7d8fFb9B868EA8E86dB9f58F3aa7ADDaceC1731B</v>
+        <v>0x332f21d78969848837f63515392e0C7a6f24c842</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E47" s="1" t="str">
         <v>否</v>
@@ -1242,16 +1245,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
-        <v>四川 达州</v>
+        <v>黑龙江 哈尔滨</v>
       </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="str">
-        <v>0xE743b31fc8E0fc8B02FA16dF48CAAa85f848f780</v>
+        <v>0x39C7eD6864D4a9e89a6403058cf6E093937fb404</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E48" s="1" t="str">
         <v>否</v>
@@ -1259,16 +1262,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <v>四川 德阳</v>
+        <v>山西 临汾</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>0x332f21d78969848837f63515392e0C7a6f24c842</v>
+        <v>0x4eFB064610574C7B3d5B7A29C18FEcbAE1ab3D7B</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>已交保证金</v>
+        <v>是</v>
       </c>
       <c r="E49" s="1" t="str">
         <v>否</v>
@@ -1276,16 +1279,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
-        <v>黑龙江 哈尔滨</v>
+        <v>福建 泉州</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>0x39C7eD6864D4a9e89a6403058cf6E093937fb404</v>
+        <v>0x60ae78727284D6C68D1d0fc5fe13185d5c6d9007</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E50" s="1" t="str">
         <v>否</v>
@@ -1293,16 +1296,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
-        <v>山西 临汾</v>
+        <v>陕西 西安</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="str">
-        <v>0x4eFB064610574C7B3d5B7A29C18FEcbAE1ab3D7B</v>
+        <v>0x2cA73315fb4248eAB8a66bA8127DE5dCf4B8A207</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E51" s="1" t="str">
         <v>否</v>
@@ -1310,16 +1313,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
-        <v>福建 泉州</v>
+        <v>河北 邯郸</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="str">
-        <v>0x60ae78727284D6C68D1d0fc5fe13185d5c6d9007</v>
+        <v>0x4318ac91eDB4aA15E91Ad0292BfceF574F74d67A</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E52" s="1" t="str">
         <v>否</v>
@@ -1327,16 +1330,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
-        <v>陕西 西安</v>
+        <v>河北 石家庄</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="str">
-        <v>0x2cA73315fb4248eAB8a66bA8127DE5dCf4B8A207</v>
+        <v>0x05fF7D67057BdD779B5c0A2BdA0D6B85Fbe3Deb7</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>已交保证金11-02</v>
+        <v>是</v>
       </c>
       <c r="E53" s="1" t="str">
         <v>否</v>
@@ -1344,16 +1347,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <v>河北 邯郸</v>
+        <v>广东 江门</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>0x4318ac91eDB4aA15E91Ad0292BfceF574F74d67A</v>
+        <v>0xd0388eD0c84c1f07D1534D3dE2090b123D01D551</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E54" s="1" t="str">
         <v>否</v>
@@ -1361,16 +1364,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
-        <v>河北 石家庄</v>
+        <v>河南 洛阳</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="str">
-        <v>0x05fF7D67057BdD779B5c0A2BdA0D6B85Fbe3Deb7</v>
+        <v>0x1a1dd408c8a3B0558cF1E6f94df868e5B55888eA</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E55" s="1" t="str">
         <v>否</v>
@@ -1378,16 +1381,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
-        <v>广东 江门</v>
+        <v>中国 香港</v>
       </c>
       <c r="B56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="str">
-        <v>0xd0388eD0c84c1f07D1534D3dE2090b123D01D551</v>
+        <v>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>是</v>
       </c>
       <c r="E56" s="1" t="str">
         <v>否</v>
@@ -1395,16 +1398,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
-        <v>河南 洛阳</v>
+        <v>越南 河内</v>
       </c>
       <c r="B57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="str">
-        <v>0x1a1dd408c8a3B0558cF1E6f94df868e5B55888eA</v>
+        <v>0xdE45dE4a222D1A799279954C123C33a8ae93FA04</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>已交保证金11-01</v>
+        <v>未交保证金</v>
       </c>
       <c r="E57" s="1" t="str">
         <v>否</v>
@@ -1412,16 +1415,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
-        <v>中国 香港</v>
+        <v>泰国 曼谷</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="str">
-        <v>0x5b1003eA0f799BD05b6E9750d0E79c570Ab52463</v>
+        <v>0xd7922692C157Ee415FaCfe700e7A3e616f7B12C8</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E58" s="1" t="str">
         <v>否</v>
@@ -1429,16 +1432,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <v>越南 河内</v>
+        <v>天津</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="str">
-        <v>0xdE45dE4a222D1A799279954C123C33a8ae93FA04</v>
+        <v>0x89366fFFdAe029818747F03A3d350E372b25E2a6</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E59" s="1" t="str">
         <v>否</v>
@@ -1446,16 +1449,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
-        <v>泰国 曼谷</v>
+        <v>呼和浩特</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="str">
-        <v>0xd7922692C157Ee415FaCfe700e7A3e616f7B12C8</v>
+        <v>0xb024A95766d59e4D8E77d21afA28357D3310f82E</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E60" s="1" t="str">
         <v>否</v>
@@ -1463,16 +1466,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
-        <v>天津</v>
+        <v>运城</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="str">
-        <v>0x89366fFFdAe029818747F03A3d350E372b25E2a6</v>
+        <v>0xB6364247A238cc19b72E0375b078602949b3aAF3</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E61" s="1" t="str">
         <v>否</v>
@@ -1480,16 +1483,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
-        <v>呼和浩特</v>
+        <v>大同</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="str">
-        <v>0xb024A95766d59e4D8E77d21afA28357D3310f82E</v>
+        <v>0x3EEBFb171A0662144068F392Df543C617B46c1c0</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E62" s="1" t="str">
         <v>否</v>
@@ -1497,16 +1500,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
-        <v>运城</v>
+        <v>沈阳</v>
       </c>
       <c r="B63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="str">
-        <v>0xB6364247A238cc19b72E0375b078602949b3aAF3</v>
+        <v>0x39A7533673A0c19A5728db7be6A3b72dC5d5E095</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E63" s="1" t="str">
         <v>否</v>
@@ -1514,16 +1517,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
-        <v>大同</v>
+        <v>长春</v>
       </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="str">
-        <v>0x3EEBFb171A0662144068F392Df543C617B46c1c0</v>
+        <v>0x2008D3307d4998Fb18aE9dF16e193cf7d17f507A</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E64" s="1" t="str">
         <v>否</v>
@@ -1531,16 +1534,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
-        <v>沈阳</v>
+        <v>自贡</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="str">
-        <v>0x39A7533673A0c19A5728db7be6A3b72dC5d5E095</v>
+        <v>0x09EF33D82d4400e3Cb3442D8D2DefA483837d001</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E65" s="1" t="str">
         <v>否</v>
@@ -1548,16 +1551,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
-        <v>长春</v>
+        <v>厦门</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1" t="str">
-        <v>0x2008D3307d4998Fb18aE9dF16e193cf7d17f507A</v>
+        <v>0xa87317766b6C2F8A1f18FfB428886936C3F442A6</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E66" s="1" t="str">
         <v>否</v>
@@ -1565,16 +1568,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
-        <v>自贡</v>
+        <v>常州</v>
       </c>
       <c r="B67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="str">
-        <v>0x09EF33D82d4400e3Cb3442D8D2DefA483837d001</v>
+        <v>0xA67C94936357D18eDdEF2CDcF8f859706cE44fC7</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E67" s="1" t="str">
         <v>否</v>
@@ -1582,16 +1585,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
-        <v>厦门</v>
+        <v>徐州</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
       </c>
       <c r="C68" s="1" t="str">
-        <v>0xa87317766b6C2F8A1f18FfB428886936C3F442A6</v>
+        <v>0x5E4f7B852D058A6e0c744f3C7923e76DfF7121b1</v>
       </c>
       <c r="D68" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E68" s="1" t="str">
         <v>否</v>
@@ -1599,13 +1602,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
-        <v>常州</v>
+        <v>濮阳</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="str">
-        <v>0xA67C94936357D18eDdEF2CDcF8f859706cE44fC7</v>
+        <v>0xa43a1F3CD76dB97ea1F61d83686011e5f0ae0038</v>
       </c>
       <c r="D69" s="1" t="str">
         <v>未交保证金</v>
@@ -1616,13 +1619,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="str">
-        <v>徐州</v>
+        <v>滨州</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="str">
-        <v>0x5E4f7B852D058A6e0c744f3C7923e76DfF7121b1</v>
+        <v>0xC4A4C5b336Ec0dD7CD6c667533bA04271fF8166d</v>
       </c>
       <c r="D70" s="1" t="str">
         <v>未交保证金</v>
@@ -1633,16 +1636,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="str">
-        <v>濮阳</v>
+        <v>赣州</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
       </c>
       <c r="C71" s="1" t="str">
-        <v>0xa43a1F3CD76dB97ea1F61d83686011e5f0ae0038</v>
+        <v>0x5e9b77A3143767B527F8CF09140f5185076528D7</v>
       </c>
       <c r="D71" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E71" s="1" t="str">
         <v>否</v>
@@ -1650,13 +1653,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="str">
-        <v>滨州</v>
+        <v>内江</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="str">
-        <v>0xC4A4C5b336Ec0dD7CD6c667533bA04271fF8166d</v>
+        <v>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</v>
       </c>
       <c r="D72" s="1" t="str">
         <v>未交保证金</v>
@@ -1667,16 +1670,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="str">
-        <v>赣州</v>
+        <v>济南</v>
       </c>
       <c r="B73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="str">
-        <v>0x5e9b77A3143767B527F8CF09140f5185076528D7</v>
+        <v>0xf37EF94dEcfBBa1ed29ADe28A51A3Ff5f0F182bB</v>
       </c>
       <c r="D73" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E73" s="1" t="str">
         <v>否</v>
@@ -1684,16 +1687,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
-        <v>内江</v>
+        <v>昆明</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</v>
+        <v>0x00c9aB378B74a59390A9128AB32454Faf54979eC</v>
       </c>
       <c r="D74" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E74" s="1" t="str">
         <v>否</v>
@@ -1701,16 +1704,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="str">
-        <v>济南</v>
+        <v>遵义</v>
       </c>
       <c r="B75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="str">
-        <v>0xf37EF94dEcfBBa1ed29ADe28A51A3Ff5f0F182bB</v>
+        <v>0x84893D8ed4A589AeD19ae71e9cb61a02b0Edd903</v>
       </c>
       <c r="D75" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E75" s="1" t="str">
         <v>否</v>
@@ -1718,30 +1721,30 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="str">
-        <v>昆明</v>
+        <v>法国利勒/France Val-de-Marne</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="str">
-        <v>0x00c9aB378B74a59390A9128AB32454Faf54979eC</v>
+        <v>0xD06bC408f29ce7D3221D60DFad134a034dc0CE16</v>
       </c>
       <c r="D76" s="1" t="str">
-        <v>未交保证金</v>
-      </c>
-      <c r="E76" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <v>否</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
-        <v>遵义</v>
+        <v>广东 佛山</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="str">
-        <v>0x84893D8ed4A589AeD19ae71e9cb61a02b0Edd903</v>
+        <v>0x1497aBa77744C14b145B0790a404000693dE6DCF</v>
       </c>
       <c r="D77" s="1" t="str">
         <v>未交保证金</v>
@@ -1752,33 +1755,33 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
-        <v>法国利勒/France Val-de-Marne</v>
+        <v>山东 潍坊</v>
       </c>
       <c r="B78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="str">
-        <v>0xD06bC408f29ce7D3221D60DFad134a034dc0CE16</v>
+        <v>0xEEEfB8196458e807B35B9688184e22438C3642AE</v>
       </c>
       <c r="D78" s="1" t="str">
         <v>未交保证金</v>
       </c>
-      <c r="E78" s="2" t="str">
+      <c r="E78" s="1" t="str">
         <v>否</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="str">
-        <v>广东 佛山</v>
+        <v>广东 汕头</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="str">
-        <v>0x1497aBa77744C14b145B0790a404000693dE6DCF</v>
+        <v>0x921977fbcd28d7E8918c95006a5ce6e8B3f5785A</v>
       </c>
       <c r="D79" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E79" s="1" t="str">
         <v>否</v>
@@ -1786,13 +1789,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="str">
-        <v>山东 潍坊</v>
+        <v>广东 中山</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
       </c>
       <c r="C80" s="1" t="str">
-        <v>0xEEEfB8196458e807B35B9688184e22438C3642AE</v>
+        <v>0x115364a4c0b2d875eac61b74130a8de3dcd2c263</v>
       </c>
       <c r="D80" s="1" t="str">
         <v>未交保证金</v>
@@ -1803,16 +1806,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="str">
-        <v>广东 汕头</v>
+        <v>山西 太原</v>
       </c>
       <c r="B81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="str">
-        <v>0x921977fbcd28d7E8918c95006a5ce6e8B3f5785A</v>
+        <v>0x9496C162dE44fE7c387543ef0237762Ce158e6ec</v>
       </c>
       <c r="D81" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E81" s="1" t="str">
         <v>否</v>
@@ -1820,13 +1823,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="str">
-        <v>广东 中山</v>
+        <v>贵州 贵阳</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
       </c>
-      <c r="C82" s="1" t="str">
-        <v>0x115364a4c0b2d875eac61b74130a8de3dcd2c263</v>
+      <c r="C82" s="1" t="str" xml:space="preserve">
+        <v>0xDC528c76c2C509f629249C95C35D181A8Bb18e12 </v>
       </c>
       <c r="D82" s="1" t="str">
         <v>未交保证金</v>
@@ -1837,16 +1840,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="str">
-        <v>山西 太原</v>
+        <v>安徽 合肥</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="str">
-        <v>0x9496C162dE44fE7c387543ef0237762Ce158e6ec</v>
+        <v>0xD7fAA76d2D39FA3AFcc9320741d0D1e49108B778</v>
       </c>
       <c r="D83" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E83" s="1" t="str">
         <v>否</v>
@@ -1854,16 +1857,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="str">
-        <v>贵州 贵阳</v>
+        <v>山西 晋城</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="str" xml:space="preserve">
-        <v>0xDC528c76c2C509f629249C95C35D181A8Bb18e12 </v>
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <v>0x0f4468FB940716045d21E3C626a793825dea0eaB</v>
       </c>
       <c r="D84" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E84" s="1" t="str">
         <v>否</v>
@@ -1871,18 +1874,86 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="str">
-        <v>安徽 合肥</v>
+        <v>山东 聊城</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="str">
-        <v>0xD7fAA76d2D39FA3AFcc9320741d0D1e49108B778</v>
+        <v>0xef3E99B0A86284e57c73d096f20c3B983cd4c18e</v>
       </c>
       <c r="D85" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E85" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="str">
+        <v>山东 济宁</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <v>0xa0a5F8edADb9933f2FfbEc9A211AA4159fDC7666</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="str">
+        <v>辽宁 大连</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <v>0x0c9Face4BD7665b85aCf28A9bfBd64c1A110DC90</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="str">
+        <v>湖北 襄阳</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <v>0xC348a135A674F09cc2D897D5C9515D80726dC82f</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="str">
+        <v>江苏 无锡</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <v>0x3E4Fd346b1d3f8Fda597579052F5C58E31F645c4</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E89" s="1" t="str">
         <v>否</v>
       </c>
     </row>

--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -457,6 +457,9 @@
       <c r="F1" s="1" t="str">
         <v>备注</v>
       </c>
+      <c r="G1" s="1" t="str">
+        <v>批次</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -474,6 +477,9 @@
       <c r="E2" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -491,6 +497,9 @@
       <c r="E3" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -508,6 +517,9 @@
       <c r="E4" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -525,6 +537,9 @@
       <c r="E5" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
@@ -542,6 +557,9 @@
       <c r="E6" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -559,6 +577,9 @@
       <c r="E7" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -576,6 +597,9 @@
       <c r="E8" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
@@ -593,6 +617,9 @@
       <c r="E9" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
@@ -610,6 +637,9 @@
       <c r="E10" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
@@ -630,6 +660,9 @@
       <c r="F11" s="1" t="str">
         <v>停止</v>
       </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str" xml:space="preserve">
@@ -647,6 +680,9 @@
       <c r="E12" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str" xml:space="preserve">
@@ -664,6 +700,9 @@
       <c r="E13" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
@@ -681,6 +720,9 @@
       <c r="E14" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
@@ -698,6 +740,9 @@
       <c r="E15" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
@@ -715,6 +760,9 @@
       <c r="E16" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
@@ -732,6 +780,9 @@
       <c r="E17" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
@@ -749,6 +800,9 @@
       <c r="E18" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
@@ -766,6 +820,9 @@
       <c r="E19" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
@@ -783,6 +840,9 @@
       <c r="E20" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
@@ -800,6 +860,9 @@
       <c r="E21" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
@@ -817,6 +880,9 @@
       <c r="E22" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
@@ -834,6 +900,9 @@
       <c r="E23" s="1" t="str">
         <v>是</v>
       </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
@@ -851,6 +920,9 @@
       <c r="E24" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
@@ -868,6 +940,9 @@
       <c r="E25" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
@@ -885,6 +960,9 @@
       <c r="E26" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
@@ -902,6 +980,9 @@
       <c r="E27" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
@@ -919,6 +1000,9 @@
       <c r="E28" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
@@ -936,6 +1020,9 @@
       <c r="E29" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
@@ -953,6 +1040,9 @@
       <c r="E30" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
@@ -970,6 +1060,9 @@
       <c r="E31" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
@@ -987,6 +1080,9 @@
       <c r="E32" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
@@ -1004,6 +1100,9 @@
       <c r="E33" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
@@ -1021,6 +1120,9 @@
       <c r="E34" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
@@ -1038,6 +1140,9 @@
       <c r="E35" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
@@ -1055,6 +1160,9 @@
       <c r="E36" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
@@ -1072,6 +1180,9 @@
       <c r="E37" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
@@ -1089,6 +1200,9 @@
       <c r="E38" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
@@ -1106,6 +1220,9 @@
       <c r="E39" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
@@ -1123,6 +1240,9 @@
       <c r="E40" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
@@ -1140,6 +1260,9 @@
       <c r="E41" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
@@ -1157,6 +1280,9 @@
       <c r="E42" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
@@ -1174,6 +1300,9 @@
       <c r="E43" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
@@ -1191,6 +1320,9 @@
       <c r="E44" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
@@ -1208,6 +1340,9 @@
       <c r="E45" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
@@ -1225,6 +1360,9 @@
       <c r="E46" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
@@ -1242,6 +1380,9 @@
       <c r="E47" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
@@ -1259,6 +1400,9 @@
       <c r="E48" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
@@ -1276,6 +1420,9 @@
       <c r="E49" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
@@ -1293,6 +1440,9 @@
       <c r="E50" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
@@ -1310,6 +1460,9 @@
       <c r="E51" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
@@ -1327,6 +1480,9 @@
       <c r="E52" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
@@ -1344,6 +1500,9 @@
       <c r="E53" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
@@ -1361,6 +1520,9 @@
       <c r="E54" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
@@ -1378,6 +1540,9 @@
       <c r="E55" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
@@ -1395,6 +1560,9 @@
       <c r="E56" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
@@ -1407,10 +1575,13 @@
         <v>0xdE45dE4a222D1A799279954C123C33a8ae93FA04</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E57" s="1" t="str">
         <v>否</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1429,6 +1600,9 @@
       <c r="E58" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
@@ -1446,6 +1620,10 @@
       <c r="E59" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
@@ -1463,6 +1641,9 @@
       <c r="E60" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
@@ -1480,6 +1661,9 @@
       <c r="E61" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
@@ -1497,6 +1681,9 @@
       <c r="E62" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
@@ -1514,6 +1701,9 @@
       <c r="E63" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
@@ -1531,6 +1721,9 @@
       <c r="E64" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
@@ -1548,6 +1741,9 @@
       <c r="E65" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
@@ -1565,6 +1761,9 @@
       <c r="E66" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G66" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
@@ -1582,6 +1781,9 @@
       <c r="E67" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G67" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
@@ -1599,6 +1801,9 @@
       <c r="E68" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
@@ -1616,6 +1821,9 @@
       <c r="E69" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="str">
@@ -1633,6 +1841,9 @@
       <c r="E70" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="str">
@@ -1650,6 +1861,9 @@
       <c r="E71" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="str">
@@ -1667,6 +1881,9 @@
       <c r="E72" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G72" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="str">
@@ -1684,6 +1901,9 @@
       <c r="E73" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
@@ -1701,6 +1921,9 @@
       <c r="E74" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="str">
@@ -1718,6 +1941,9 @@
       <c r="E75" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="str">
@@ -1735,6 +1961,9 @@
       <c r="E76" s="2" t="str">
         <v>否</v>
       </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
@@ -1752,6 +1981,9 @@
       <c r="E77" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
@@ -1764,10 +1996,13 @@
         <v>0xEEEfB8196458e807B35B9688184e22438C3642AE</v>
       </c>
       <c r="D78" s="1" t="str">
-        <v>未交保证金</v>
+        <v>是</v>
       </c>
       <c r="E78" s="1" t="str">
         <v>否</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1786,6 +2021,9 @@
       <c r="E79" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="str">
@@ -1803,6 +2041,9 @@
       <c r="E80" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G80" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="str">
@@ -1820,6 +2061,9 @@
       <c r="E81" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="str">
@@ -1837,6 +2081,9 @@
       <c r="E82" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G82" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="str">
@@ -1854,6 +2101,9 @@
       <c r="E83" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G83" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="str">
@@ -1871,6 +2121,9 @@
       <c r="E84" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="str">
@@ -1888,6 +2141,9 @@
       <c r="E85" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="str">
@@ -1905,6 +2161,9 @@
       <c r="E86" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="str">
@@ -1922,6 +2181,9 @@
       <c r="E87" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="str">
@@ -1939,6 +2201,9 @@
       <c r="E88" s="1" t="str">
         <v>否</v>
       </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="str">
@@ -1955,6 +2220,49 @@
       </c>
       <c r="E89" s="1" t="str">
         <v>否</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="str">
+        <v>江苏 南通</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <v>0x5Ee1c6Fa4CeC95afA07444422199ff6ff6563740</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="str">
+        <v>河北 唐山</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <v>0xAC23762B17F0ec25009028C13dea1b9092e60CF5</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <v>是</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -2265,6 +2265,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="str">
+        <v>广东省 梅州市</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <v>0x8af9CFb2E5563aB9F7b4DedaF33661149d68aE4D</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -2285,6 +2285,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="str">
+        <v>浙江省 湖州市</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <v>0x93fe62C58538b09DE8a76f9d356F79C7058D5486</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/server/assets/城市先锋-用户信息.xlsx
+++ b/server/assets/城市先锋-用户信息.xlsx
@@ -432,10 +432,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2305,6 +2308,66 @@
         <v>3</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="str">
+        <v>河南 漯河</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <v>0xe866061255291CD1424907D8443A0fE00E389fF3</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="str">
+        <v>宁夏 银川</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <v>0xA148419A3547AddF6b5891c492408FedA6B695c1</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="str">
+        <v>VietNam Thanh Hoa City</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <v>0xCf0A35Bf0D54F776867b09996969f01C863B5656</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <v>未交保证金</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <v>否</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
